--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C376839D-1818-4B97-BA67-E1F80ACE9D14}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,22 +500,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -541,7 +540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -552,7 +551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -560,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -571,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -579,42 +578,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -628,7 +627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -642,7 +641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -650,7 +649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -664,12 +663,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -8,8 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
+    <sheet name="Git" sheetId="2" r:id="rId2"/>
+    <sheet name="Apache" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$D$22</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Befehl</t>
   </si>
@@ -154,12 +159,111 @@
   <si>
     <t>umask</t>
   </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>[options]
+-c create
+-x extract
+-f file=Archive
+-v verbose
+-z gzip
+FILE</t>
+  </si>
+  <si>
+    <t>Werkzeug zum Archivieren von Daten auf Linux-Systemen</t>
+  </si>
+  <si>
+    <r>
+      <t>Ein Archiv anlegen, zwei Dateien hinzufügen und nachträglich mit gzip komprimieren:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tar -czf archiv.tar.gz datei_1.txt datei_2.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alle Dateien aus dem Archiv extrahieren:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tar -xzf archiv.tar.gz </t>
+    </r>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>alias-name=string</t>
+  </si>
+  <si>
+    <t>alias - define or display aliases</t>
+  </si>
+  <si>
+    <t>alias hallo='echo "hallo"'</t>
+  </si>
+  <si>
+    <t>alias-name</t>
+  </si>
+  <si>
+    <t>unalias hallo</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>systemctl</t>
+  </si>
+  <si>
+    <t>[options]
+-u Write bytes from the input file to the standard output
+FILE</t>
+  </si>
+  <si>
+    <t>The cat utility shall read files in sequence and shall write their contents to the output in the same sequence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +287,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,22 +349,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,180 +668,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="21" style="12" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D25" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D26" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -8,11 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
-    <sheet name="Git" sheetId="2" r:id="rId2"/>
+    <sheet name="mysql" sheetId="5" r:id="rId2"/>
     <sheet name="Apache" sheetId="3" r:id="rId3"/>
+    <sheet name="Tomcat" sheetId="4" r:id="rId4"/>
+    <sheet name="Git" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Befehl</t>
   </si>
   <si>
-    <t>Parameter</t>
-  </si>
-  <si>
     <t>which</t>
   </si>
   <si>
@@ -52,18 +51,12 @@
     <t>df</t>
   </si>
   <si>
-    <t>-h</t>
-  </si>
-  <si>
     <t>report file system disk space usage</t>
   </si>
   <si>
     <t>du</t>
   </si>
   <si>
-    <t>estimate file space usage</t>
-  </si>
-  <si>
     <t>ls</t>
   </si>
   <si>
@@ -106,24 +99,6 @@
     <t>modify a user account</t>
   </si>
   <si>
-    <t>-g Groupid Groupname</t>
-  </si>
-  <si>
-    <t>[options]
--c Comment
--m Create Home
--g Groupid
--p Password
--u Userid
-LOGIN</t>
-  </si>
-  <si>
-    <t>[options]
--c Comment
--g Groupid
-LOGIN</t>
-  </si>
-  <si>
     <t>Beispiel</t>
   </si>
   <si>
@@ -142,9 +117,6 @@
     <t>print real and effective user and group Ids</t>
   </si>
   <si>
-    <t>which mount</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
@@ -161,15 +133,6 @@
   </si>
   <si>
     <t>tar</t>
-  </si>
-  <si>
-    <t>[options]
--c create
--x extract
--f file=Archive
--v verbose
--z gzip
-FILE</t>
   </si>
   <si>
     <t>Werkzeug zum Archivieren von Daten auf Linux-Systemen</t>
@@ -221,18 +184,12 @@
     <t>alias</t>
   </si>
   <si>
-    <t>alias-name=string</t>
-  </si>
-  <si>
     <t>alias - define or display aliases</t>
   </si>
   <si>
     <t>alias hallo='echo "hallo"'</t>
   </si>
   <si>
-    <t>alias-name</t>
-  </si>
-  <si>
     <t>unalias hallo</t>
   </si>
   <si>
@@ -251,12 +208,406 @@
     <t>systemctl</t>
   </si>
   <si>
-    <t>[options]
--u Write bytes from the input file to the standard output
-FILE</t>
-  </si>
-  <si>
     <t>The cat utility shall read files in sequence and shall write their contents to the output in the same sequence</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>tail — copy the last part of a file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inhalt von hallo.txt ausgeben:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cat -u hallo.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>chown</t>
+  </si>
+  <si>
+    <t>passwd - change user password</t>
+  </si>
+  <si>
+    <t>SYNOPSIS</t>
+  </si>
+  <si>
+    <t>passwd [options] [LOGIN]</t>
+  </si>
+  <si>
+    <t>alias [alias-name[=string]]</t>
+  </si>
+  <si>
+    <t>cat [-u] [file...]</t>
+  </si>
+  <si>
+    <t>-u Write bytes from the input file to the standard output</t>
+  </si>
+  <si>
+    <t>groupadd [options] group</t>
+  </si>
+  <si>
+    <t>Parameter/Options</t>
+  </si>
+  <si>
+    <t>df [option] [FILE]</t>
+  </si>
+  <si>
+    <t>-h human readable</t>
+  </si>
+  <si>
+    <t>df -h</t>
+  </si>
+  <si>
+    <t>-n number
+-f file</t>
+  </si>
+  <si>
+    <t>tail [-f] [-n number] [file]</t>
+  </si>
+  <si>
+    <t>tar [options] [pathname]</t>
+  </si>
+  <si>
+    <t>-c create
+-x extract
+-f file=Archive
+-v verbose
+-z gzip</t>
+  </si>
+  <si>
+    <t>unalias alias-name</t>
+  </si>
+  <si>
+    <t>useradd [options] LOGIN</t>
+  </si>
+  <si>
+    <t>-c Comment
+-m Create Home
+-g Groupid
+-p Password
+-u Userid</t>
+  </si>
+  <si>
+    <t>usermod [options] LOGIN</t>
+  </si>
+  <si>
+    <t>-c Comment
+-g Groupid</t>
+  </si>
+  <si>
+    <t>which [-a] filename</t>
+  </si>
+  <si>
+    <t>-a printing all matching pathnames of each argument</t>
+  </si>
+  <si>
+    <t>which -a mount</t>
+  </si>
+  <si>
+    <t>-g Groupid</t>
+  </si>
+  <si>
+    <t>chmod - change the file modes</t>
+  </si>
+  <si>
+    <t>chmod [-R] mode file</t>
+  </si>
+  <si>
+    <t>-R Recursively change file mode bits</t>
+  </si>
+  <si>
+    <t>chmod -R 777 test</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>chown [OPTION] [OWNER][:[GROUP]] FILE</t>
+  </si>
+  <si>
+    <t>-f silent, quiet
+-v verbose
+-R recursive</t>
+  </si>
+  <si>
+    <t>chown - change file owner and group</t>
+  </si>
+  <si>
+    <t>chown -R Owner:Group Ordner</t>
+  </si>
+  <si>
+    <t>tail -f -n 15 access.log</t>
+  </si>
+  <si>
+    <t>cp [option] SOURCE DESTINATION</t>
+  </si>
+  <si>
+    <t>-f force
+-R,r recursive
+-v verbose</t>
+  </si>
+  <si>
+    <t>Copy SOURCE to DEST, or multiple SOURCE(s) to DIRECTORY.</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>cp -rf test /tmp/</t>
+  </si>
+  <si>
+    <t>Summarize disk usage of each FILE, recursively for directories.</t>
+  </si>
+  <si>
+    <t>du [option] [FILE]</t>
+  </si>
+  <si>
+    <t>du -h test</t>
+  </si>
+  <si>
+    <t>file — determine file type</t>
+  </si>
+  <si>
+    <t>file [option] [FILE]</t>
+  </si>
+  <si>
+    <t>-i mime type</t>
+  </si>
+  <si>
+    <t>file -i test.txt</t>
+  </si>
+  <si>
+    <t>find - search for files in a directory hierarchy</t>
+  </si>
+  <si>
+    <t>find [-H] [-L] [-P] [-D debugopts] [-Olevel] [path...] [expression]</t>
+  </si>
+  <si>
+    <t>find -D rates -O3 / -iname Test.txt</t>
+  </si>
+  <si>
+    <t>-P Never symbolic Links
+-L Follow symbolic Links
+-D Debug Options: tree, stat, opt, rates
+-O query optimisation: 0, 1, 2, 3
+-iname match is case insensitive</t>
+  </si>
+  <si>
+    <t>man Befehl</t>
+  </si>
+  <si>
+    <t>grep - search a file for a pattern</t>
+  </si>
+  <si>
+    <t>-E Match using extended regular expressions
+-F Treat each pattern specified as a string instead of a regular expression
+-i case insensitive
+-r recursiv</t>
+  </si>
+  <si>
+    <t>grep [options] pattern FILE/PATH</t>
+  </si>
+  <si>
+    <t>grep -ri "Hallo" /home/</t>
+  </si>
+  <si>
+    <t>id [option] [username]</t>
+  </si>
+  <si>
+    <t>-g print only group ID
+-u print only user ID</t>
+  </si>
+  <si>
+    <t>id -u username</t>
+  </si>
+  <si>
+    <t>ifconfig [-a] [-s] [interface] [options]</t>
+  </si>
+  <si>
+    <t>-a display all interfaces, even if down
+-s display a short list
+up activate Interface
+down disable Interface</t>
+  </si>
+  <si>
+    <t>ifconfig - configure a network interface</t>
+  </si>
+  <si>
+    <t>ifconfig eth0 up
+ifconfig eth1 down</t>
+  </si>
+  <si>
+    <t>ip [options]</t>
+  </si>
+  <si>
+    <t>a, address protocol (IP or IPv6) on a device</t>
+  </si>
+  <si>
+    <t>ip - show / manipulate routing, devices, policy routing and tunnels</t>
+  </si>
+  <si>
+    <t>ip a</t>
+  </si>
+  <si>
+    <t>ln - link files</t>
+  </si>
+  <si>
+    <t>ln [-fs] source_file target_file
+ln [-fs] source_file target_dir</t>
+  </si>
+  <si>
+    <t>-f Force existing destination pathnames to be removed to allow the link
+-s Create symbolic links instead of hard links</t>
+  </si>
+  <si>
+    <t>unlink</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">link /home/user to /link:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ln -s /home/user/ /link</t>
+    </r>
+  </si>
+  <si>
+    <t>ls - list directory contents</t>
+  </si>
+  <si>
+    <t>ls [OPTION]... [FILE]...</t>
+  </si>
+  <si>
+    <t>-a do not ignore entries starting with .
+-l use a long listing format</t>
+  </si>
+  <si>
+    <t>ls -la</t>
+  </si>
+  <si>
+    <t>mkdir - make directories</t>
+  </si>
+  <si>
+    <t>mkdir [-p][-m mode] dir...</t>
+  </si>
+  <si>
+    <t>-m mode
+-p Create any missing intermediate pathname components</t>
+  </si>
+  <si>
+    <t>mkdir -p /eins/zwei/drei</t>
+  </si>
+  <si>
+    <t>mount attaches the filesystem specified by source to the directory specified by target</t>
+  </si>
+  <si>
+    <t>mount [-t] [-o options] device dir</t>
+  </si>
+  <si>
+    <t>-t file system type of the device
+-o uid=value gid=value umask=value</t>
+  </si>
+  <si>
+    <t>sudo mount /dev/sda1 /mnt</t>
+  </si>
+  <si>
+    <t>mv - move (rename) files</t>
+  </si>
+  <si>
+    <t>mv [option] source destination</t>
+  </si>
+  <si>
+    <t>-f force</t>
+  </si>
+  <si>
+    <t>Ordner oder File umbenennen
+mv ordner1 ordner2
+Ordner bewegen
+mv -f /test /home/user/</t>
+  </si>
+  <si>
+    <t>passwd Benutzername</t>
+  </si>
+  <si>
+    <t>-d delete (delete account)
+-e expire
+-i inactive (disable account)</t>
+  </si>
+  <si>
+    <t>systemctl [start|stop|restart|status|enable|disable] Service</t>
+  </si>
+  <si>
+    <t>start
+stop
+restart
+status - show status of service
+enable - enable a service to be started on bootup
+disable  - disables a service to not start during bootup</t>
+  </si>
+  <si>
+    <t>systemctl - Control the systemd system and service manager</t>
+  </si>
+  <si>
+    <t>systemctl start httpd
+systemctl status httpd</t>
+  </si>
+  <si>
+    <t>touch [-acm][-r | -t] file</t>
+  </si>
+  <si>
+    <t>touch - change file access and modification times. Or create a file</t>
+  </si>
+  <si>
+    <t>-a Change access time of file
+-m Change the modification time of file</t>
+  </si>
+  <si>
+    <t>touch hallo.txt</t>
+  </si>
+  <si>
+    <t>umask - get or set the file mode creation mask</t>
+  </si>
+  <si>
+    <t>umask [-S] [mask]</t>
+  </si>
+  <si>
+    <t>-S Accept a symbolic representation of a mask, or return one.</t>
+  </si>
+  <si>
+    <t>rmdir</t>
+  </si>
+  <si>
+    <t>umask 0022</t>
   </si>
 </sst>
 </file>
@@ -305,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +687,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -345,36 +702,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -386,6 +741,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,249 +1050,556 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="38" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="B34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>34</v>
+      <c r="E34" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D27">
+  <sortState ref="A2:E34">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -924,11 +1610,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -949,4 +1637,34 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="215">
   <si>
     <t>Befehl</t>
   </si>
@@ -430,9 +430,6 @@
     <t>grep [options] pattern FILE/PATH</t>
   </si>
   <si>
-    <t>grep -ri "Hallo" /home/</t>
-  </si>
-  <si>
     <t>id [option] [username]</t>
   </si>
   <si>
@@ -453,10 +450,6 @@
   </si>
   <si>
     <t>ifconfig - configure a network interface</t>
-  </si>
-  <si>
-    <t>ifconfig eth0 up
-ifconfig eth1 down</t>
   </si>
   <si>
     <t>ip [options]</t>
@@ -608,6 +601,308 @@
   </si>
   <si>
     <t>umask 0022</t>
+  </si>
+  <si>
+    <t>rm [option] FILE…</t>
+  </si>
+  <si>
+    <t>-f force
+-i interactive
+-r recursive
+-v verbose</t>
+  </si>
+  <si>
+    <t>rm - remove files or directories</t>
+  </si>
+  <si>
+    <t>rm -rf DIRECTORY
+rm -f FILE</t>
+  </si>
+  <si>
+    <t>rmdir [option] DIRECTORY</t>
+  </si>
+  <si>
+    <t>unlink FILE</t>
+  </si>
+  <si>
+    <t>Einen Link löschen</t>
+  </si>
+  <si>
+    <t>unlink linkname</t>
+  </si>
+  <si>
+    <t>deluser</t>
+  </si>
+  <si>
+    <t>deluser [options] user</t>
+  </si>
+  <si>
+    <t>delgroup</t>
+  </si>
+  <si>
+    <t>delgroup [options] group</t>
+  </si>
+  <si>
+    <t>--remove-home removing home directory and mail spool
+--remove-all-files removing all files owned by the user (including home and mail spool)</t>
+  </si>
+  <si>
+    <t>deluser - remove a user</t>
+  </si>
+  <si>
+    <t>delgroup - remove a group</t>
+  </si>
+  <si>
+    <t>deluser --remove-all-files svwer</t>
+  </si>
+  <si>
+    <t>delgroup test</t>
+  </si>
+  <si>
+    <t>fdisk</t>
+  </si>
+  <si>
+    <t>fdisk [options] [device]</t>
+  </si>
+  <si>
+    <t>-i interactive
+-l list partitions</t>
+  </si>
+  <si>
+    <t>fdisk manipulate partition tables on a hard drive</t>
+  </si>
+  <si>
+    <t>rmdir - remove empty directories</t>
+  </si>
+  <si>
+    <t>--help</t>
+  </si>
+  <si>
+    <t>rmdir DIRECTORY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Partitionen auflisten:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fdisk -l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+disk /dev/sda bearbeiten:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fdisk /dev/sda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muster "Hallo" im Verzeichnis /home/ suchen rekursiv</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+grep -ri "Hallo" /home/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muster "Hallo" in der Datei test.txt suchen</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+grep -i "Hallo" test.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>ifconfig
+ifconfig eth0 up
+ifconfig eth1 down</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>Clone a GIT Repository</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/xxSvenxx/Linux</t>
+  </si>
+  <si>
+    <t>git clone &lt;Repository&gt;</t>
+  </si>
+  <si>
+    <t>git add &lt;File&gt;</t>
+  </si>
+  <si>
+    <t>git-add - Add file contents to the index</t>
+  </si>
+  <si>
+    <t>git add Linux_Befehle.xlsx</t>
+  </si>
+  <si>
+    <t>git-commit - Record changes to the repository</t>
+  </si>
+  <si>
+    <t>git commit -m "Comment"</t>
+  </si>
+  <si>
+    <t>git-push - Update remote repository</t>
+  </si>
+  <si>
+    <t>git-pull Update local repository</t>
+  </si>
+  <si>
+    <t>checkout of a branch</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>netstat</t>
+  </si>
+  <si>
+    <t>netstat [options]</t>
+  </si>
+  <si>
+    <t>-t tcp
+-u udp
+-l listening
+-p program
+-n numeric</t>
+  </si>
+  <si>
+    <t>netstat   -   Print  network  connections,  routing  tables,  interface statistics, masquerade connections, and multicast memberships</t>
+  </si>
+  <si>
+    <t>netstat -tulpn</t>
+  </si>
+  <si>
+    <t>getent</t>
+  </si>
+  <si>
+    <t>ahosts
+ahostsv4
+ahostsv6</t>
+  </si>
+  <si>
+    <t>getent - get entries from Name Service Switch libraries</t>
+  </si>
+  <si>
+    <t>getent database hostname</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resolve IPv4 from www.google.ch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getent ahostsv4 www.google.ch</t>
+    </r>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>dig - DNS lookup utility</t>
+  </si>
+  <si>
+    <t>dig [@server] [name] [type] [queryopt]</t>
+  </si>
+  <si>
+    <t>server: ip of the name server to query
+name: FQDN
+type: MX, A, AAAA…
+queryopt: +short (provide short answer)</t>
+  </si>
+  <si>
+    <t>dig www.google.ch A +short</t>
+  </si>
+  <si>
+    <t>umount</t>
+  </si>
+  <si>
+    <t>umount [option] [mountpoint]</t>
+  </si>
+  <si>
+    <t>-f force
+-l lazy (Detach the filesystem from the filesystem hierarchy now, cleanup all references to the filesystem.)</t>
+  </si>
+  <si>
+    <t>umount – unmount a file system.</t>
+  </si>
+  <si>
+    <t>umount -f /mydata</t>
   </si>
 </sst>
 </file>
@@ -721,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,6 +1062,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,6 +1080,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2562225"/>
+          <a:ext cx="4010025" cy="3756900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,7 +1408,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,441 +1523,590 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>165</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E19" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="D20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="E21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="C22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="16" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="E24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="16" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="E25" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="16" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="E26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="16" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B29" s="13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="C29" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>67</v>
+        <v>156</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E34">
+  <sortState ref="A2:E41">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1659,12 +2166,99 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
   <si>
     <t>Befehl</t>
   </si>
@@ -903,6 +903,60 @@
   </si>
   <si>
     <t>umount -f /mydata</t>
+  </si>
+  <si>
+    <t>SHOW DATABASES;</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE db_name;</t>
+  </si>
+  <si>
+    <t>DROP DATABASE db_name;</t>
+  </si>
+  <si>
+    <t>SHOW TABLES FROM db_name;</t>
+  </si>
+  <si>
+    <t>DROP TABLE tbl_name;</t>
+  </si>
+  <si>
+    <t>Eine Datenbank erstellen</t>
+  </si>
+  <si>
+    <t>Alle existierenden Datenbanken anzeigen</t>
+  </si>
+  <si>
+    <t>Datenbank löschen</t>
+  </si>
+  <si>
+    <t>Tabelle löschen</t>
+  </si>
+  <si>
+    <t>Alle existierenden Tabellen anzeigen</t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_namen ADD COLUMN (spalte2 char(50));</t>
+  </si>
+  <si>
+    <t>Nachträglich eine Spalte in einer Tabelle einfügen</t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_namen MODIFY (spalte2 varchar(50));</t>
+  </si>
+  <si>
+    <t>Datentyp einer Spalte ändern</t>
+  </si>
+  <si>
+    <t>ALTER TABLE tbl_namen DROP COLUMN spalte2;</t>
+  </si>
+  <si>
+    <t>Spalte löschen</t>
+  </si>
+  <si>
+    <t>INSERT INTO tbl_namen (spalte1, spalte2) VALUES (wert1, wert2);</t>
+  </si>
+  <si>
+    <t>Daten in einer vorhandenen Tabelle speichern</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1012,11 +1066,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1065,6 +1132,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2119,15 +2192,103 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055E456-826E-474F-B100-5BC383D80A2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="248">
   <si>
     <t>Befehl</t>
   </si>
@@ -958,12 +954,57 @@
   <si>
     <t>Daten in einer vorhandenen Tabelle speichern</t>
   </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Servicename</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>Centos</t>
+  </si>
+  <si>
+    <t>httpd</t>
+  </si>
+  <si>
+    <t>apache2</t>
+  </si>
+  <si>
+    <t>Systemctl</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>CentOS</t>
+  </si>
+  <si>
+    <t>mysqld</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>use db_name</t>
+  </si>
+  <si>
+    <t>Datenbank benutzen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,6 +1041,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1067,23 +1123,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1132,15 +1184,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1160,19 +1234,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>32625</xdr:rowOff>
+      <xdr:colOff>2368550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1192,8 +1272,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="2562225"/>
-          <a:ext cx="4010025" cy="3756900"/>
+          <a:off x="82550" y="1527175"/>
+          <a:ext cx="4089400" cy="3629900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1477,24 +1557,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1526,7 +1608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1543,7 +1625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -1560,7 +1642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1577,7 +1659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>162</v>
       </c>
@@ -1608,7 +1690,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>160</v>
       </c>
@@ -1625,7 +1707,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>205</v>
       </c>
@@ -1659,7 +1741,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>169</v>
       </c>
@@ -1693,7 +1775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1792,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>200</v>
       </c>
@@ -1744,7 +1826,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -1761,7 +1843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1778,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1795,7 +1877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -1829,7 +1911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1878,7 +1960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -1895,7 +1977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -1912,7 +1994,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +2011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>195</v>
       </c>
@@ -1946,7 +2028,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +2045,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
@@ -1980,7 +2062,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>150</v>
       </c>
@@ -1997,7 +2079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -2031,7 +2113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -2048,7 +2130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -2065,7 +2147,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -2082,7 +2164,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>210</v>
       </c>
@@ -2099,7 +2181,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>119</v>
       </c>
@@ -2127,7 +2209,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -2144,7 +2226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
@@ -2161,7 +2243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
@@ -2188,127 +2270,259 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="F3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2316,31 +2530,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -2362,7 +2576,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -2373,7 +2587,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -2384,7 +2598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -2395,7 +2609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -2406,7 +2620,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>182</v>
       </c>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055E456-826E-474F-B100-5BC383D80A2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946E389-6E36-4B4B-97C4-1D5BD110A332}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="263">
   <si>
     <t>Befehl</t>
   </si>
@@ -415,12 +415,6 @@
   </si>
   <si>
     <t>grep - search a file for a pattern</t>
-  </si>
-  <si>
-    <t>-E Match using extended regular expressions
--F Treat each pattern specified as a string instead of a regular expression
--i case insensitive
--r recursiv</t>
   </si>
   <si>
     <t>grep [options] pattern FILE/PATH</t>
@@ -998,6 +992,59 @@
   </si>
   <si>
     <t>Datenbank benutzen</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t>reboot</t>
+  </si>
+  <si>
+    <t>shutdown</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>yum</t>
+  </si>
+  <si>
+    <t>yum [options] [command] [package …]</t>
+  </si>
+  <si>
+    <t>telnet</t>
+  </si>
+  <si>
+    <t>Option:
+Command:</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>awk</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>-E Match using extended regular expressions
+-F Treat each pattern specified as a string instead of a regular expression
+-i case insensitive
+-r recursiv
+-v invert-match select non matching lines</t>
   </si>
 </sst>
 </file>
@@ -1184,18 +1231,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,14 +1247,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,10 +1608,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1678,33 +1725,33 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="C8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1726,19 +1773,19 @@
     </row>
     <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="E10" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1760,19 +1807,19 @@
     </row>
     <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1811,36 +1858,36 @@
     </row>
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1865,16 +1912,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1882,16 +1929,16 @@
         <v>41</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1899,16 +1946,16 @@
         <v>42</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1916,16 +1963,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1933,16 +1980,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1965,16 +2012,16 @@
         <v>80</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1982,16 +2029,16 @@
         <v>47</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1999,33 +2046,33 @@
         <v>10</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -2036,13 +2083,13 @@
         <v>54</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -2050,33 +2097,33 @@
         <v>89</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
@@ -2084,16 +2131,16 @@
         <v>45</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2135,16 +2182,16 @@
         <v>36</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="E34" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2152,33 +2199,33 @@
         <v>32</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>149</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2197,16 +2244,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -2258,6 +2305,77 @@
       </c>
       <c r="E41" s="7" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2291,139 +2409,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="29"/>
+      <c r="A1" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>243</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="24"/>
       <c r="E4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E12" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2457,58 +2575,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="24"/>
+      <c r="C4" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="20"/>
+        <v>238</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
         <v>237</v>
       </c>
-      <c r="B6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2559,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>22</v>
@@ -2567,68 +2685,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
         <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946E389-6E36-4B4B-97C4-1D5BD110A332}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B8146-D2E6-49F0-8D17-7A1D3888EFC0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>Beispiel</t>
-  </si>
-  <si>
-    <t>useradd -c "Sven Werder" -m -p "w901user" -u 500 svwer</t>
-  </si>
-  <si>
-    <t>usermod -g 600 svwer</t>
   </si>
   <si>
     <t>groupadd -g 600 tbz</t>
@@ -307,10 +301,6 @@
   </si>
   <si>
     <t>usermod [options] LOGIN</t>
-  </si>
-  <si>
-    <t>-c Comment
--g Groupid</t>
   </si>
   <si>
     <t>which [-a] filename</t>
@@ -1045,6 +1035,20 @@
 -i case insensitive
 -r recursiv
 -v invert-match select non matching lines</t>
+  </si>
+  <si>
+    <t>-a append (Add the user to the group(s) Use only with -G option)
+-c Comment
+-g Groupid
+-G groups (A list of groups which the user is also member of)</t>
+  </si>
+  <si>
+    <t>usermod -g 600 svwer
+usermod -aG sudo swerder</t>
+  </si>
+  <si>
+    <t>useradd -c "Sven Werder" -m -p "w901user" -u 500 svwer
+passwd benutzen um Passwort zu setzen -p geht nicht</t>
   </si>
 </sst>
 </file>
@@ -1610,772 +1614,772 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>207</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="E19" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="E20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="E27" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="E31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C34" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="E34" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="16" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C35" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="13" t="s">
+      <c r="E35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="E36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="B46" s="13" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="C46" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B46" s="13" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2398,29 +2402,29 @@
       <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -2428,120 +2432,120 @@
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="3" t="s">
+    <row r="8" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="E11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="E12" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E13" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2567,63 +2571,63 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B6" t="s">
         <v>234</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>237</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -2648,7 +2652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2665,88 +2669,88 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
         <v>185</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>186</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B8146-D2E6-49F0-8D17-7A1D3888EFC0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
-    <sheet name="mysql" sheetId="5" r:id="rId2"/>
-    <sheet name="Apache" sheetId="3" r:id="rId3"/>
-    <sheet name="Tomcat" sheetId="4" r:id="rId4"/>
-    <sheet name="Git" sheetId="2" r:id="rId5"/>
+    <sheet name="Berechtigungen" sheetId="6" r:id="rId2"/>
+    <sheet name="mysql" sheetId="5" r:id="rId3"/>
+    <sheet name="Apache" sheetId="3" r:id="rId4"/>
+    <sheet name="Tomcat" sheetId="4" r:id="rId5"/>
+    <sheet name="Git" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$E$22</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="343">
   <si>
     <t>Befehl</t>
   </si>
@@ -1005,10 +1005,6 @@
     <t>telnet</t>
   </si>
   <si>
-    <t>Option:
-Command:</t>
-  </si>
-  <si>
     <t>sed</t>
   </si>
   <si>
@@ -1050,11 +1046,310 @@
     <t>useradd -c "Sven Werder" -m -p "w901user" -u 500 svwer
 passwd benutzen um Passwort zu setzen -p geht nicht</t>
   </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>mit ls angezeigt als</t>
+  </si>
+  <si>
+    <t>octal</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Der Shell-Befehl umask (user mask) vergibt die Standard-Zugriffsrechte beim Anlegen neuer Dateien und Verzeichnissen.</t>
+  </si>
+  <si>
+    <t>Standardwert</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Verzeichnis</t>
+  </si>
+  <si>
+    <t>666 (-rw-rw-rw)</t>
+  </si>
+  <si>
+    <t>777 (drwxrwxrwx)</t>
+  </si>
+  <si>
+    <t>über eine vierstellige Oktalzahl, die anzeigt, welche Rechte von den Standardwerten (für Dateien 0666 und bei Verzeichnissen 0777) abgezogen werden. Bei einer umask von 0022 werden die neuen Dateien demnach die Zugriffsrechte 0644 ( -rw-r--r-- ) und neue Verzeichnisse 0755 ( -rwxr-xr-x ) erhalten:</t>
+  </si>
+  <si>
+    <t>umask berechnen</t>
+  </si>
+  <si>
+    <t>umask konfigurieren</t>
+  </si>
+  <si>
+    <t>Configuration file</t>
+  </si>
+  <si>
+    <t>Type of setting</t>
+  </si>
+  <si>
+    <t>Targeted user</t>
+  </si>
+  <si>
+    <t>When applied</t>
+  </si>
+  <si>
+    <t>Shell access type</t>
+  </si>
+  <si>
+    <t>/etc/profile</t>
+  </si>
+  <si>
+    <t>Default setting</t>
+  </si>
+  <si>
+    <t>Custom setting</t>
+  </si>
+  <si>
+    <t>/etc/bashrc</t>
+  </si>
+  <si>
+    <t>/etc/profile.d/umask.sh</t>
+  </si>
+  <si>
+    <t>/home/[user-name]/.bashrc</t>
+  </si>
+  <si>
+    <t>All users including root</t>
+  </si>
+  <si>
+    <t>individual user</t>
+  </si>
+  <si>
+    <t>While user login</t>
+  </si>
+  <si>
+    <t>While user access additional shell</t>
+  </si>
+  <si>
+    <t>While user login and while user access additional shell</t>
+  </si>
+  <si>
+    <t>While individual user login and access additional shell</t>
+  </si>
+  <si>
+    <t>Login shell</t>
+  </si>
+  <si>
+    <t>Non-login shell</t>
+  </si>
+  <si>
+    <t>Both Login and non-login shell</t>
+  </si>
+  <si>
+    <t>test [expression]</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to use the test command to check file types and compare values. The same command can be used to see if a file exist of not. </t>
+  </si>
+  <si>
+    <t>Option:
+-d FILE exists and is a directory
+-e FILE exists
+Comparing Text:
+- = does string 1 match string 2
+- != is string 1 different to string 2
+Comparing Numbers:
+ - -eq does value 1 equal value 2
+- -ge is value 1 greater or equal to value 2
+- -gt is value 1 greater than value 2
+- -le is value 1 less than or equal to value 2
+- -lt is value 1 less than value 2
+- -ne does value 1 not equal value 2</t>
+  </si>
+  <si>
+    <t>echo option STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-e Von einem Backslash („\“) eingeleitete Sequenzen werden als Befehle erkannt
+-E Von einem Backslash („\“) eingeleitete Sequenzen werden NICHT als Befehle erkannt
+-n Keine Ausgabe des am Zeilenende stehenden Zeilentrenners </t>
+  </si>
+  <si>
+    <t>echo - display a line of text</t>
+  </si>
+  <si>
+    <t>echo -e 'Hallo \nWelt'</t>
+  </si>
+  <si>
+    <t>Communicate with another host using  the TELNET protocol</t>
+  </si>
+  <si>
+    <t>telnet [-46] [host [port]]</t>
+  </si>
+  <si>
+    <t>-4 Force IPv4 address resolution
+-6 Force IPv6 address resolution</t>
+  </si>
+  <si>
+    <t>telnet testserver.local 80</t>
+  </si>
+  <si>
+    <t>date [OPTION]... [+FORMAT]</t>
+  </si>
+  <si>
+    <t>date - print or set the system date and time</t>
+  </si>
+  <si>
+    <t>date "+%d%m%y"</t>
+  </si>
+  <si>
+    <t>-s set time
++Format:
+%d day of month
+%m Month
+%y last two digits of Year</t>
+  </si>
+  <si>
+    <t>Option:
+-help
+--enablerepo=repoidglob (enable specific Repo)
+--disablerepo=repoidglob (disable specific Repo)
+Command:
+install
+list (list available Packages)
+update
+upgrade
+remove
+search (find package)
+repolist</t>
+  </si>
+  <si>
+    <t>yum is an interactive, rpm based, package manager.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yum install net-tools
+yum search ifconfig
+yum repolist
+yum remove net-tools
+yum list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test -d "/home/user/" &amp;&amp; echo "yes" || echo "no"
+test 1 -eq 2 &amp;&amp; echo "yes" || echo "no"
+&amp;&amp; = run the following statement if the result is true
+|| = run the following statement if the result is false
+</t>
+  </si>
+  <si>
+    <t>Print first 10 lines of each FILE to standard output</t>
+  </si>
+  <si>
+    <t>head [option] [FILE]</t>
+  </si>
+  <si>
+    <t>-n number of lines to be printed</t>
+  </si>
+  <si>
+    <t>head -n3 test.txt</t>
+  </si>
+  <si>
+    <t>reboot the machine</t>
+  </si>
+  <si>
+    <t>reboot [options]</t>
+  </si>
+  <si>
+    <t>shutdown [options]</t>
+  </si>
+  <si>
+    <t>reboot -f</t>
+  </si>
+  <si>
+    <t>-t time in seconds
+now</t>
+  </si>
+  <si>
+    <t>shutdown the machine</t>
+  </si>
+  <si>
+    <t>shutdown -t 0
+shutdown now</t>
+  </si>
+  <si>
+    <t>sort [option] [FILE]</t>
+  </si>
+  <si>
+    <t>sort lines of text files</t>
+  </si>
+  <si>
+    <t>sort -n -k2 -t ';' test.csv
+sort -r -d -k1 -t ';' test.csv</t>
+  </si>
+  <si>
+    <t>-d dictionary-order (A..Z)
+-n numeric-sort
+-t field seperator
+-k sort via key (BSP: k1=column1, k2=column2)
+-r reverse the result of comparisons</t>
+  </si>
+  <si>
+    <t>cut option [FILE]</t>
+  </si>
+  <si>
+    <t>Print selected parts of lines from each FILE</t>
+  </si>
+  <si>
+    <t>-f select only these fields
+-d delimiter</t>
+  </si>
+  <si>
+    <t>cut -d ';' -f 1,3,4 test.csv</t>
+  </si>
+  <si>
+    <t>translate or delete characters</t>
+  </si>
+  <si>
+    <t>tr [option] [SET1] [SET2]…</t>
+  </si>
+  <si>
+    <t>option:
+-d delete characters
+sets:
+[:lower:] all lower case letters
+[:upper:] all uper case letters
+[:digit:] all digits
+[:alpha:] all letters</t>
+  </si>
+  <si>
+    <t>echo "the geek stuff" | tr -d 't'
+cat hallo.txt | tr -d [:digit:]
+cat hallo.txt | tr [:lower:] [:upper:]
+cat hallo.txt | tr -d [:alpha:]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1186,7 +1481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1263,9 +1558,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1281,6 +1606,104 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="umask permanent setting config file"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9972675" y="876300"/>
+          <a:ext cx="3752850" cy="6905625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>917161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>428626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3857625"/>
+          <a:ext cx="2936461" cy="942976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1300,7 +1723,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,17 +2031,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
@@ -1885,7 +2308,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>100</v>
@@ -2274,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2285,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2320,18 +2743,54 @@
       <c r="A43" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>248</v>
       </c>
@@ -2339,47 +2798,142 @@
         <v>249</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>250</v>
       </c>
+      <c r="B47" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>258</v>
+      <c r="B54" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2392,17 +2946,270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="31">
+        <v>4</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
@@ -2560,8 +3367,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -2571,7 +3378,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
@@ -2643,8 +3450,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2652,14 +3459,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2669,7 +3476,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1481,7 +1481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1534,6 +1534,42 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,39 +1590,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1723,7 +1726,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,9 +2040,7 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2082,862 +2083,862 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>153</v>
+        <v>326</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>155</v>
+        <v>329</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>70</v>
+        <v>135</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B55" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:E41">
+  <sortState ref="A2:E55">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,143 +2970,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="23">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="39"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="39"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3" t="s">
         <v>285</v>
       </c>
@@ -3123,11 +3124,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3" t="s">
         <v>288</v>
       </c>
@@ -3180,6 +3181,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="D3:F4"/>
@@ -3190,7 +3192,6 @@
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3220,24 +3221,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3246,10 +3247,10 @@
       <c r="B3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3264,10 +3265,10 @@
       <c r="B4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="3" t="s">
         <v>242</v>
       </c>
@@ -3282,8 +3283,8 @@
       <c r="B5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>211</v>
       </c>
@@ -3386,24 +3387,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -3412,10 +3413,10 @@
       <c r="B4" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3424,10 +3425,10 @@
       <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3436,8 +3437,8 @@
       <c r="B6" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
-    <sheet name="Berechtigungen" sheetId="6" r:id="rId2"/>
-    <sheet name="mysql" sheetId="5" r:id="rId3"/>
-    <sheet name="Apache" sheetId="3" r:id="rId4"/>
-    <sheet name="Tomcat" sheetId="4" r:id="rId5"/>
-    <sheet name="Git" sheetId="2" r:id="rId6"/>
+    <sheet name="Linux_Filesystem" sheetId="7" r:id="rId2"/>
+    <sheet name="Linux_Berechtigungen" sheetId="6" r:id="rId3"/>
+    <sheet name="Regex" sheetId="9" r:id="rId4"/>
+    <sheet name="mysql" sheetId="5" r:id="rId5"/>
+    <sheet name="Apache" sheetId="3" r:id="rId6"/>
+    <sheet name="Tomcat" sheetId="4" r:id="rId7"/>
+    <sheet name="nginx" sheetId="8" r:id="rId8"/>
+    <sheet name="Git" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$E$22</definedName>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="503">
   <si>
     <t>Befehl</t>
   </si>
@@ -1345,12 +1348,994 @@
 cat hallo.txt | tr [:lower:] [:upper:]
 cat hallo.txt | tr -d [:alpha:]</t>
   </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/bin</t>
+  </si>
+  <si>
+    <t>/boot</t>
+  </si>
+  <si>
+    <t>/dev</t>
+  </si>
+  <si>
+    <t>/etc</t>
+  </si>
+  <si>
+    <t>/home</t>
+  </si>
+  <si>
+    <t>/lib</t>
+  </si>
+  <si>
+    <t>/media</t>
+  </si>
+  <si>
+    <t>/proc</t>
+  </si>
+  <si>
+    <t>/root</t>
+  </si>
+  <si>
+    <t>/sbin</t>
+  </si>
+  <si>
+    <t>/tmp</t>
+  </si>
+  <si>
+    <t>/usr</t>
+  </si>
+  <si>
+    <t>/var</t>
+  </si>
+  <si>
+    <t>/opt</t>
+  </si>
+  <si>
+    <t>Filesystem Hierarchie Standard</t>
+  </si>
+  <si>
+    <t>Das Verzeichnis / (auch "Wurzelverzeichnis" oder "root" genannt) stellt den Basispfad des Systems dar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis ("binaries") befinden sich </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wichtige Programme für Anwender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, die immer verfügbar sein müssen, beispielsweise die Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oder das Programm </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Anzeige von Verzeichnis-Inhalten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis befinden sich die zum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hochfahren des Systems unbedingt erforderlichen Dateien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Am wichtigsten ist dabei der Kernel, üblicherweise eine Datei mit dem Namen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vmlinuz-versionsname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (andere Namen sind ebenfalls möglich).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis ("etcetera") befinden sich </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zahlreiche Konfigurationsdateien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, die Einstellungen zu den installierten Programmen sowie grundlegende Systeminformationen enthalten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis befinden sich die </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>persönlichen Verzeichnisse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> der einzelnen Benutzer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In diesem Verzeichnis ("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">") befinden sich die wichtigsten </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Funktionsbibliotheken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> des Systems. Diese Dateien sollten nicht manuell verändert werden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis ("devices") befinden sich ausschliesslich </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Geräte-Dateien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Für jede Festplatte und ihre Partitionen existiert im /dev/ - Verzeichnis ein eigener Eintrag.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis werden </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>externe Datenträger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> als Unterverzeichnisse eingebunden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis ("processes") sind </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keine gewöhnlichen Dateien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enthalten, sondern</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Schnittstellen zum Linux-Kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Jedes laufende Programm wird hier in einem Unterverzeichnis geführt, dessen Dateien viele Informationen beispielsweise über den aktuellen Programmstatus enthalten.</t>
+    </r>
+  </si>
+  <si>
+    <t>In diesem Verzeichnis befinden sich die (persönlichen) Dateien des Systemverwalters ("Root", "Superuser").</t>
+  </si>
+  <si>
+    <r>
+      <t>In diesem Verzeichnis ("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>superuser-binarie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s") befinden sich ebenfalls - ähnlich wie in /bin-Verzeichnis - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wichtige Programme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, die allerdings für den </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Systemverwalter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gedacht sind.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dieses Verzeichnis ("temporary") kann von jedem Benutzer und jedem Programm als </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>temporäre Ablage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Dateien verwendet werden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In diesem Verzeichnis ("unix system ressources") befinden sich der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grösste Teil der installierten Software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Die ausführbaren Programmdateien sind meist in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/usr/bin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Programmbibliotheken in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/usr/lib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abgelegt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In diesem Verzeichnis ("variables") befinden sich hauptsächlich Dateien, die sich ständig verändern. Beispielsweise:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Log-Dateien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>In diesem Verzeichnis ("optional") werden bei Bedarf sehr grosse Programme gespeichert, die nicht unmittelbar zum System gehören.</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Sample Match</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>one digit from 0 to 9</t>
+  </si>
+  <si>
+    <t>file_\d\d</t>
+  </si>
+  <si>
+    <t>file_25</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>word character: ASCII letter, digit or underscore</t>
+  </si>
+  <si>
+    <t>h\wll\o</t>
+  </si>
+  <si>
+    <t>hallo</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>whitespace character: space, tab, newline, carriage return, vertical tab</t>
+  </si>
+  <si>
+    <t>\w\sallo</t>
+  </si>
+  <si>
+    <t>h allo</t>
+  </si>
+  <si>
+    <t>\D</t>
+  </si>
+  <si>
+    <t>One character that is not a digit</t>
+  </si>
+  <si>
+    <t>\D\D\D</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>\W</t>
+  </si>
+  <si>
+    <t>One character that is not a word character</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>One character that is not a whitespace character</t>
+  </si>
+  <si>
+    <t>\S\S\S\S\S</t>
+  </si>
+  <si>
+    <t>Quantifiers</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>One or more</t>
+  </si>
+  <si>
+    <t>Version \w-\w+</t>
+  </si>
+  <si>
+    <t>Version A-b1_1</t>
+  </si>
+  <si>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>Exactly three times</t>
+  </si>
+  <si>
+    <t>\w{3}</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>{2,4}</t>
+  </si>
+  <si>
+    <t>Two to four times</t>
+  </si>
+  <si>
+    <t>\d{2,4}</t>
+  </si>
+  <si>
+    <t>{3,}</t>
+  </si>
+  <si>
+    <t>Three to more times</t>
+  </si>
+  <si>
+    <t>\w{3,}</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Zero or more times</t>
+  </si>
+  <si>
+    <t>A*B*C*</t>
+  </si>
+  <si>
+    <t>AAACC</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Once or none</t>
+  </si>
+  <si>
+    <t>plurals?</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>More Characters</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Any character except line break</t>
+  </si>
+  <si>
+    <t>a.c</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>4\*4</t>
+  </si>
+  <si>
+    <t>4*4</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Escapes a special character</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>\t</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Alternation / OR operand</t>
+  </si>
+  <si>
+    <t>\+|h\wllo</t>
+  </si>
+  <si>
+    <t>( … )</t>
+  </si>
+  <si>
+    <t>A(nt|\w*le)</t>
+  </si>
+  <si>
+    <t>Match: +
+Match: hallo</t>
+  </si>
+  <si>
+    <t>Match: Ant
+Match: Apple</t>
+  </si>
+  <si>
+    <t>\1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Capturing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group</t>
+    </r>
+  </si>
+  <si>
+    <t>Contents of Group 1</t>
+  </si>
+  <si>
+    <t>A(\w)\1e</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>\2</t>
+  </si>
+  <si>
+    <t>Contents of Group 2</t>
+  </si>
+  <si>
+    <t>(\d\d)\+(\d\d)=\2\+\1</t>
+  </si>
+  <si>
+    <t>12+65=65+12</t>
+  </si>
+  <si>
+    <t>(?: … )</t>
+  </si>
+  <si>
+    <t>Non-capturing group</t>
+  </si>
+  <si>
+    <t>A(?:nt|pple)</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>More White-Space</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>\w\t\w{4}</t>
+  </si>
+  <si>
+    <t>h    allo</t>
+  </si>
+  <si>
+    <t>\r</t>
+  </si>
+  <si>
+    <t>Carriage return character</t>
+  </si>
+  <si>
+    <t>see below</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>Line feed character</t>
+  </si>
+  <si>
+    <t>\r\n</t>
+  </si>
+  <si>
+    <t>Line seperator on Windows</t>
+  </si>
+  <si>
+    <t>AB\r\nCD</t>
+  </si>
+  <si>
+    <t>AB
+CD</t>
+  </si>
+  <si>
+    <t>Character Classes</t>
+  </si>
+  <si>
+    <t>[ … ]</t>
+  </si>
+  <si>
+    <t>One of the characters in the brackets</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Range indicator</t>
+  </si>
+  <si>
+    <t>[a-z]</t>
+  </si>
+  <si>
+    <t>One lowercase letter</t>
+  </si>
+  <si>
+    <t>[x-y]</t>
+  </si>
+  <si>
+    <t>One of the characters in the range from x to y</t>
+  </si>
+  <si>
+    <t>[A-Z]+</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>[AEIOU]
+T[ao]p
+[AB1-5w-z]</t>
+  </si>
+  <si>
+    <t>One uppercase vowel
+Tap or Top
+A,B,1,2,3,4,5,w,x,y,z</t>
+  </si>
+  <si>
+    <t>[^x]</t>
+  </si>
+  <si>
+    <t>One Character that is not x</t>
+  </si>
+  <si>
+    <t>[^x-y]</t>
+  </si>
+  <si>
+    <t>One of the characters not in the range from x to y</t>
+  </si>
+  <si>
+    <t>[\d\D]</t>
+  </si>
+  <si>
+    <t>One character that is a digit or a non-digit</t>
+  </si>
+  <si>
+    <t>[\d\D]+</t>
+  </si>
+  <si>
+    <t>Any Character</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Start of string or start of line. (But when [^inside brackets], it means "not")</t>
+  </si>
+  <si>
+    <t>^abc.*</t>
+  </si>
+  <si>
+    <t>Anchors and Boundaries</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>End of string</t>
+  </si>
+  <si>
+    <t>.*?the end$</t>
+  </si>
+  <si>
+    <t>this is the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\b </t>
+  </si>
+  <si>
+    <t>Word boundary
+Position where one side only is an ASCII letter, digit or underscore</t>
+  </si>
+  <si>
+    <t>Bob.*\bcat\b</t>
+  </si>
+  <si>
+    <t>Bob had a cat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1406,8 +2391,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1441,6 +2458,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,7 +2516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1546,6 +2581,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1555,20 +2626,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1726,7 +2824,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +3138,9 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2949,12 +4049,171 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="29" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="36"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,14 +4238,14 @@
       <c r="C1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -2998,16 +4257,16 @@
       <c r="C2" s="23">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -3019,16 +4278,16 @@
       <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -3040,158 +4299,158 @@
       <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="28" t="s">
         <v>284</v>
       </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="27" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="27" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="D3:F4"/>
     <mergeCell ref="G3:I4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3199,7 +4458,700 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="A27:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3221,24 +5173,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3247,10 +5199,10 @@
       <c r="B3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3265,10 +5217,10 @@
       <c r="B4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="3" t="s">
         <v>242</v>
       </c>
@@ -3283,8 +5235,8 @@
       <c r="B5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="3" t="s">
         <v>211</v>
       </c>
@@ -3368,7 +5320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -3387,24 +5339,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -3413,10 +5365,10 @@
       <c r="B4" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3425,10 +5377,10 @@
       <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3437,8 +5389,8 @@
       <c r="B6" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3451,7 +5403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -3466,7 +5418,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69A4C2A-803F-46B6-A1D6-66A69B8F405C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
@@ -16,21 +17,28 @@
     <sheet name="Tomcat" sheetId="4" r:id="rId7"/>
     <sheet name="nginx" sheetId="8" r:id="rId8"/>
     <sheet name="Git" sheetId="2" r:id="rId9"/>
+    <sheet name="Linux_Kanäle" sheetId="10" r:id="rId10"/>
+    <sheet name="Task_Scheduler" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$E$22</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="514">
   <si>
     <t>Befehl</t>
   </si>
@@ -2330,11 +2338,44 @@
   <si>
     <t>Bob had a cat</t>
   </si>
+  <si>
+    <t>Standard-Error (stderr)</t>
+  </si>
+  <si>
+    <t>Standard-Output (stdout)</t>
+  </si>
+  <si>
+    <t>Standard-Input (stdin)</t>
+  </si>
+  <si>
+    <t>cron</t>
+  </si>
+  <si>
+    <t>Aufbau</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>Minute 0-59</t>
+  </si>
+  <si>
+    <t>Hour 0-23</t>
+  </si>
+  <si>
+    <t>Day of month 1-31</t>
+  </si>
+  <si>
+    <t>month 1-12</t>
+  </si>
+  <si>
+    <t>day of week 0-6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2516,7 +2557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2614,18 +2655,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2640,6 +2669,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2689,9 +2730,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2723,7 +2770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="umask permanent setting config file"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="umask permanent setting config file">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2778,7 +2831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2824,7 +2883,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,26 +3191,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3168,7 +3227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -3183,12 +3242,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3222,7 +3281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -3239,7 +3298,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>254</v>
       </c>
@@ -3273,7 +3332,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>247</v>
       </c>
@@ -3290,7 +3349,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>158</v>
       </c>
@@ -3304,7 +3363,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>156</v>
       </c>
@@ -3321,7 +3380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>201</v>
       </c>
@@ -3355,7 +3414,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3372,7 +3431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>301</v>
       </c>
@@ -3389,7 +3448,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>165</v>
       </c>
@@ -3406,7 +3465,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -3423,7 +3482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +3499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>196</v>
       </c>
@@ -3457,7 +3516,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -3474,7 +3533,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -3491,7 +3550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>252</v>
       </c>
@@ -3508,7 +3567,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3525,7 +3584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -3542,7 +3601,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -3559,7 +3618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -3576,7 +3635,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -3608,7 +3667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -3625,7 +3684,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -3642,7 +3701,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -3659,7 +3718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>191</v>
       </c>
@@ -3676,7 +3735,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3693,7 +3752,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>245</v>
       </c>
@@ -3710,7 +3769,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>86</v>
       </c>
@@ -3727,7 +3786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
@@ -3744,12 +3803,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>246</v>
       </c>
@@ -3766,7 +3825,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>253</v>
       </c>
@@ -3783,12 +3842,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -3805,7 +3864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -3822,7 +3881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>31</v>
       </c>
@@ -3839,7 +3898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>250</v>
       </c>
@@ -3856,7 +3915,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>257</v>
       </c>
@@ -3873,7 +3932,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
@@ -3890,7 +3949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>255</v>
       </c>
@@ -3907,7 +3966,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>30</v>
       </c>
@@ -3924,7 +3983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>206</v>
       </c>
@@ -3941,7 +4000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
@@ -3955,7 +4014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -3969,7 +4028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
@@ -3986,7 +4045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4062,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>1</v>
       </c>
@@ -4020,7 +4079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>248</v>
       </c>
@@ -4046,30 +4105,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0881A8B-2FDF-4E22-B0DE-40AE3AEF71BD}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34E49D-7ACD-41FB-9C12-595E96A2E373}">
+  <sheetPr>
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" style="29" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>358</v>
       </c>
       <c r="B1" s="36"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>274</v>
       </c>
@@ -4077,7 +4248,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>343</v>
       </c>
@@ -4085,7 +4256,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>344</v>
       </c>
@@ -4093,7 +4264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>345</v>
       </c>
@@ -4101,7 +4272,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>346</v>
       </c>
@@ -4109,7 +4280,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>347</v>
       </c>
@@ -4117,7 +4288,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>348</v>
       </c>
@@ -4125,7 +4296,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>349</v>
       </c>
@@ -4133,7 +4304,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>350</v>
       </c>
@@ -4141,7 +4312,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>351</v>
       </c>
@@ -4149,7 +4320,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>352</v>
       </c>
@@ -4157,7 +4328,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>353</v>
       </c>
@@ -4165,7 +4336,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>354</v>
       </c>
@@ -4173,7 +4344,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>355</v>
       </c>
@@ -4181,7 +4352,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>356</v>
       </c>
@@ -4189,7 +4360,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>357</v>
       </c>
@@ -4206,7 +4377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -4216,19 +4387,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>262</v>
       </c>
@@ -4238,16 +4409,16 @@
       <c r="C1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>265</v>
       </c>
@@ -4257,18 +4428,18 @@
       <c r="C2" s="23">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>266</v>
       </c>
@@ -4278,18 +4449,18 @@
       <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>267</v>
       </c>
@@ -4299,50 +4470,50 @@
       <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="28" t="s">
         <v>280</v>
       </c>
@@ -4360,12 +4531,12 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="27" t="s">
         <v>285</v>
       </c>
@@ -4382,12 +4553,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="27" t="s">
         <v>288</v>
       </c>
@@ -4404,7 +4575,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
@@ -4421,7 +4592,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="D12" s="27" t="s">
         <v>290</v>
       </c>
@@ -4440,17 +4611,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="G3:I4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D6:H7"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="G3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4459,25 +4630,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="26" customWidth="1"/>
     <col min="3" max="3" width="22" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>374</v>
       </c>
@@ -4485,19 +4656,19 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>375</v>
       </c>
@@ -4505,13 +4676,13 @@
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>376</v>
       </c>
@@ -4525,7 +4696,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>380</v>
       </c>
@@ -4539,7 +4710,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>384</v>
       </c>
@@ -4553,7 +4724,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>388</v>
       </c>
@@ -4567,7 +4738,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>392</v>
       </c>
@@ -4581,7 +4752,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>396</v>
       </c>
@@ -4595,7 +4766,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>399</v>
       </c>
@@ -4609,7 +4780,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>402</v>
       </c>
@@ -4617,13 +4788,13 @@
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>376</v>
       </c>
@@ -4637,7 +4808,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>403</v>
       </c>
@@ -4651,7 +4822,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>407</v>
       </c>
@@ -4665,7 +4836,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>411</v>
       </c>
@@ -4679,7 +4850,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>414</v>
       </c>
@@ -4693,7 +4864,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>417</v>
       </c>
@@ -4707,7 +4878,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>421</v>
       </c>
@@ -4721,7 +4892,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
         <v>425</v>
       </c>
@@ -4729,13 +4900,13 @@
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>376</v>
       </c>
@@ -4749,7 +4920,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>426</v>
       </c>
@@ -4763,7 +4934,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>432</v>
       </c>
@@ -4777,7 +4948,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>434</v>
       </c>
@@ -4785,13 +4956,13 @@
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>376</v>
       </c>
@@ -4805,7 +4976,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>436</v>
       </c>
@@ -4819,7 +4990,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>439</v>
       </c>
@@ -4833,7 +5004,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>443</v>
       </c>
@@ -4847,7 +5018,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>448</v>
       </c>
@@ -4861,7 +5032,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>452</v>
       </c>
@@ -4875,7 +5046,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="46" t="s">
         <v>456</v>
       </c>
@@ -4883,13 +5054,13 @@
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>376</v>
       </c>
@@ -4903,7 +5074,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>435</v>
       </c>
@@ -4917,7 +5088,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>460</v>
       </c>
@@ -4928,7 +5099,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>463</v>
       </c>
@@ -4939,7 +5110,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>465</v>
       </c>
@@ -4953,7 +5124,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="47" t="s">
         <v>469</v>
       </c>
@@ -4961,13 +5132,13 @@
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>376</v>
       </c>
@@ -4981,7 +5152,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>470</v>
       </c>
@@ -4995,7 +5166,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>472</v>
       </c>
@@ -5009,7 +5180,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>476</v>
       </c>
@@ -5023,7 +5194,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>482</v>
       </c>
@@ -5037,7 +5208,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>484</v>
       </c>
@@ -5051,7 +5222,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>486</v>
       </c>
@@ -5065,7 +5236,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="49" t="s">
         <v>493</v>
       </c>
@@ -5073,13 +5244,13 @@
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="49"/>
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
       <c r="D52" s="49"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>376</v>
       </c>
@@ -5093,7 +5264,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>490</v>
       </c>
@@ -5107,7 +5278,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>495</v>
       </c>
@@ -5121,7 +5292,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>499</v>
       </c>
@@ -5152,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -5162,17 +5333,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>237</v>
       </c>
@@ -5184,7 +5355,7 @@
       </c>
       <c r="F1" s="59"/>
     </row>
-    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -5192,7 +5363,7 @@
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
     </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>230</v>
       </c>
@@ -5210,7 +5381,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>232</v>
       </c>
@@ -5228,7 +5399,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>238</v>
       </c>
@@ -5244,7 +5415,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6" s="3" t="s">
         <v>213</v>
       </c>
@@ -5252,7 +5423,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>214</v>
       </c>
@@ -5260,7 +5431,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
         <v>215</v>
       </c>
@@ -5268,7 +5439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5276,7 +5447,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="3" t="s">
         <v>223</v>
       </c>
@@ -5284,7 +5455,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E11" s="3" t="s">
         <v>225</v>
       </c>
@@ -5292,7 +5463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E12" s="3" t="s">
         <v>227</v>
       </c>
@@ -5300,7 +5471,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="3" t="s">
         <v>212</v>
       </c>
@@ -5321,7 +5492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5331,14 +5502,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>229</v>
       </c>
@@ -5346,19 +5517,19 @@
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>230</v>
       </c>
@@ -5370,27 +5541,27 @@
       </c>
       <c r="D4" s="61"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5404,7 +5575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -5412,14 +5583,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5427,14 +5598,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5444,14 +5615,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -5473,7 +5644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -5484,7 +5655,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -5495,7 +5666,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -5506,7 +5677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -5517,7 +5688,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>178</v>
       </c>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69A4C2A-803F-46B6-A1D6-66A69B8F405C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
@@ -17,13 +16,13 @@
     <sheet name="Tomcat" sheetId="4" r:id="rId7"/>
     <sheet name="nginx" sheetId="8" r:id="rId8"/>
     <sheet name="Git" sheetId="2" r:id="rId9"/>
-    <sheet name="Linux_Kanäle" sheetId="10" r:id="rId10"/>
+    <sheet name="Unix Streams, Pipes, Umleitunge" sheetId="10" r:id="rId10"/>
     <sheet name="Task_Scheduler" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$E$22</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="567">
   <si>
     <t>Befehl</t>
   </si>
@@ -2348,12 +2347,6 @@
     <t>Standard-Input (stdin)</t>
   </si>
   <si>
-    <t>cron</t>
-  </si>
-  <si>
-    <t>Aufbau</t>
-  </si>
-  <si>
     <t>command</t>
   </si>
   <si>
@@ -2370,13 +2363,249 @@
   </si>
   <si>
     <t>day of week 0-6</t>
+  </si>
+  <si>
+    <t>Linux Kanäle</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>0&lt;</t>
+  </si>
+  <si>
+    <t>1&gt;</t>
+  </si>
+  <si>
+    <t>2&gt;</t>
+  </si>
+  <si>
+    <t>stdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kanal, von dem das Programm seine Eingabe erwartet. Dieser Kanal besitzt die Kenn-Nummer 0 und ist normalerweise mit der Tastatur verbunden. </t>
+  </si>
+  <si>
+    <t>stdout</t>
+  </si>
+  <si>
+    <t>Der Kanal, auf den das Programm seine Ausgaben schreibt. Dieser Kanal besitzt die Kenn-Nummer 1 und ist normalerweise mit dem Monitor verbunden.</t>
+  </si>
+  <si>
+    <t>stderr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kanal, auf den das Programm seine Fehlerausgaben schreibt. Dieser Kanal besitzt die Kenn-Nummer 2 und ist wie STDOUT normalerweise mit dem Monitor verbunden. </t>
+  </si>
+  <si>
+    <t>Umleitung</t>
+  </si>
+  <si>
+    <t>Umleitungen</t>
+  </si>
+  <si>
+    <t>Bedeutung</t>
+  </si>
+  <si>
+    <t>Programm &gt; Datei</t>
+  </si>
+  <si>
+    <t>Programm &gt;&gt; Datei</t>
+  </si>
+  <si>
+    <t>Programm &lt; Datei</t>
+  </si>
+  <si>
+    <t>Programm &lt;&lt; 
+EOM
+…
+EOM</t>
+  </si>
+  <si>
+    <t>Das Programm leitet seine Standard Ausgabe in die Datei um, statt sie auf den Bildschirm zu schreiben. Existiert die Datei schon, so wird sie überschrieben, existiert sie noch nicht, so wird sie neu angelegt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Programm leitet seine Standard Ausgabe in die Datei um, statt sie auf den Bildschirm zu schreiben. Existiert die Datei schon, so wird die Ausgabe hinten an die bestehende Datei angehängt, existiert sie noch nicht, so wird sie neu angelegt. </t>
+  </si>
+  <si>
+    <t>Das Programm ließt seine Eingabe aus der Datei statt von der Tastatur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Programm ließt seine Eingaben statt von der Tastatur aus dem Block zwischen den beiden EOM Marken. Dabei dürfen diese Marken beliebige Worte sein, es gilt immer vom ersten bis zum zweiten Auftreten der Marke. Diese Konstruktion wird "here-document" genannt und findet Anwendung fast ausschließlich in der Scriptprogrammierung. </t>
+  </si>
+  <si>
+    <t>Beispiele</t>
+  </si>
+  <si>
+    <t>Manchmal ist es auch sinnvoll oder gewünscht, den Fehlerausgabekanal umzuleiten. Das ist über die Nennung seiner Kenn-Nummer vor dem Umleitungssymbol möglich.</t>
+  </si>
+  <si>
+    <t>Programm 2&gt; error.txt</t>
+  </si>
+  <si>
+    <t>Diese Anweisung bündelt die Kanäle 2 und 1 (STDERR und STDOUT) und leitet beide in die Datei um.</t>
+  </si>
+  <si>
+    <t>Programm &gt; Datei 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>Ausgabe eines Programmes an ein anderes Programm weitergeben</t>
+  </si>
+  <si>
+    <t>Piping |</t>
+  </si>
+  <si>
+    <t>Programm1 | Programm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das läßt sich beliebig fortsetzen, es ist also möglich, auch mehrere Programme hintereinanderzuhängen. </t>
+  </si>
+  <si>
+    <t>STDERR in eine Datei umleitung und STDOUT in eine Datei umleiten</t>
+  </si>
+  <si>
+    <t>find / 2&gt; /tmp/error 1&gt; /tmp/found</t>
+  </si>
+  <si>
+    <t>crontab</t>
+  </si>
+  <si>
+    <t>crontab - maintains crontab files for individual users</t>
+  </si>
+  <si>
+    <t>crontab [-u user] [options]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Option:
+-u Crontab of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be modified
+-l list current crontab
+-r removes the current crontab
+-e edit crontab</t>
+    </r>
+  </si>
+  <si>
+    <t>List crontab of USERNAME
+crontab -u USERNAME -l
+Edit Crontab of USERNAME
+crontab -u USERNAME -e</t>
+  </si>
+  <si>
+    <t>crontab -e, -l</t>
+  </si>
+  <si>
+    <t>Benutzerdefinierter crontab</t>
+  </si>
+  <si>
+    <t>/etc/crontab</t>
+  </si>
+  <si>
+    <t>Systemweiter crontab</t>
+  </si>
+  <si>
+    <t>Aufbau Benutzerdefinierter crontab</t>
+  </si>
+  <si>
+    <t>Aufbau Systemweiter crontab</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>execute a command as another user</t>
+  </si>
+  <si>
+    <t>sudo [option] [command]</t>
+  </si>
+  <si>
+    <t>-u run as other user than root
+-i switch into root shell</t>
+  </si>
+  <si>
+    <t>sudo rm -rf directory
+sudo -i</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>ps [option]</t>
+  </si>
+  <si>
+    <t>-e wählt alle Prozesse aus
+r beschränkt die Auswahl auf laufende Prozesse
+-f erzeugt eine detailliertere Ausgabe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">report a snapshot of the current </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rocesse</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>ps -ef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2464,8 +2693,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2520,6 +2765,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2557,7 +2820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2652,9 +2915,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2670,18 +2957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2730,15 +3005,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2773,7 +3087,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="umask permanent setting config file">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +3148,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +3197,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,6 +3222,66 @@
         <a:xfrm>
           <a:off x="82550" y="1527175"/>
           <a:ext cx="4089400" cy="3629900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.linux-praxis.de/lpic1/images/kanal1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4286250"/>
+          <a:ext cx="4638675" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3191,26 +3565,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3227,7 +3599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -3242,12 +3614,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3264,7 +3636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +3653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -3298,7 +3670,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3315,789 +3687,835 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="B42" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C46" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D50" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B51" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B54" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+    <row r="57" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B57" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>318</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E55">
+  <sortState ref="A2:E57">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4106,141 +4524,462 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0881A8B-2FDF-4E22-B0DE-40AE3AEF71BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="D1" s="74" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="J1" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="J3" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="J4" s="73" t="s">
+        <v>542</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+    </row>
+    <row r="5" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="J5" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
+      <c r="B6" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="D8" s="72" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="D10" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="D11" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="D12" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="D13" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="D14" s="73" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="D15" s="71" t="s">
+        <v>545</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="B16" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34E49D-7ACD-41FB-9C12-595E96A2E373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I3" t="s">
+        <v>511</v>
+      </c>
+      <c r="J3" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" t="s">
+      <c r="F6" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" t="s">
         <v>509</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H6" t="s">
         <v>510</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I6" t="s">
         <v>511</v>
       </c>
-      <c r="H2" t="s">
-        <v>512</v>
-      </c>
-      <c r="I2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J2" t="s">
-        <v>508</v>
+      <c r="J6" t="s">
+        <v>557</v>
+      </c>
+      <c r="K6" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E4:K5"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="29" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="36"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>274</v>
       </c>
@@ -4248,7 +4987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>343</v>
       </c>
@@ -4256,7 +4995,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>344</v>
       </c>
@@ -4264,7 +5003,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>345</v>
       </c>
@@ -4272,7 +5011,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>346</v>
       </c>
@@ -4280,7 +5019,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>347</v>
       </c>
@@ -4288,7 +5027,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>348</v>
       </c>
@@ -4296,7 +5035,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>349</v>
       </c>
@@ -4304,7 +5043,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>350</v>
       </c>
@@ -4312,7 +5051,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>351</v>
       </c>
@@ -4320,7 +5059,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>352</v>
       </c>
@@ -4328,7 +5067,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>353</v>
       </c>
@@ -4336,7 +5075,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>354</v>
       </c>
@@ -4344,7 +5083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>355</v>
       </c>
@@ -4352,7 +5091,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>356</v>
       </c>
@@ -4360,7 +5099,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>357</v>
       </c>
@@ -4377,7 +5116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -4387,19 +5126,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>262</v>
       </c>
@@ -4409,16 +5148,16 @@
       <c r="C1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>265</v>
       </c>
@@ -4428,18 +5167,18 @@
       <c r="C2" s="23">
         <v>4</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>266</v>
       </c>
@@ -4449,18 +5188,18 @@
       <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>267</v>
       </c>
@@ -4470,50 +5209,50 @@
       <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="28" t="s">
         <v>280</v>
       </c>
@@ -4531,12 +5270,12 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="27" t="s">
         <v>285</v>
       </c>
@@ -4553,12 +5292,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="27" t="s">
         <v>288</v>
       </c>
@@ -4575,7 +5314,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
@@ -4592,7 +5331,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D12" s="27" t="s">
         <v>290</v>
       </c>
@@ -4611,17 +5350,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="G3:I4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D6:H7"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="G3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4630,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -4640,49 +5379,49 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="26" customWidth="1"/>
     <col min="3" max="3" width="22" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>376</v>
       </c>
@@ -4696,7 +5435,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>380</v>
       </c>
@@ -4710,7 +5449,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>384</v>
       </c>
@@ -4724,7 +5463,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>388</v>
       </c>
@@ -4738,7 +5477,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>392</v>
       </c>
@@ -4752,7 +5491,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>396</v>
       </c>
@@ -4766,7 +5505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>399</v>
       </c>
@@ -4780,21 +5519,21 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>376</v>
       </c>
@@ -4808,7 +5547,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>403</v>
       </c>
@@ -4822,7 +5561,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>407</v>
       </c>
@@ -4836,7 +5575,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>411</v>
       </c>
@@ -4850,7 +5589,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>414</v>
       </c>
@@ -4864,7 +5603,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>417</v>
       </c>
@@ -4878,7 +5617,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>421</v>
       </c>
@@ -4892,21 +5631,21 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>376</v>
       </c>
@@ -4920,7 +5659,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>426</v>
       </c>
@@ -4934,7 +5673,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>432</v>
       </c>
@@ -4948,21 +5687,21 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>376</v>
       </c>
@@ -4976,7 +5715,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>436</v>
       </c>
@@ -4990,7 +5729,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>439</v>
       </c>
@@ -5004,7 +5743,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>443</v>
       </c>
@@ -5018,7 +5757,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>448</v>
       </c>
@@ -5032,7 +5771,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>452</v>
       </c>
@@ -5046,21 +5785,21 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>376</v>
       </c>
@@ -5074,7 +5813,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>435</v>
       </c>
@@ -5088,7 +5827,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>460</v>
       </c>
@@ -5099,7 +5838,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>463</v>
       </c>
@@ -5110,7 +5849,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>465</v>
       </c>
@@ -5124,21 +5863,21 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
         <v>376</v>
       </c>
@@ -5152,7 +5891,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>470</v>
       </c>
@@ -5166,7 +5905,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>472</v>
       </c>
@@ -5180,7 +5919,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>476</v>
       </c>
@@ -5194,7 +5933,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>482</v>
       </c>
@@ -5208,7 +5947,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>484</v>
       </c>
@@ -5222,7 +5961,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>486</v>
       </c>
@@ -5236,21 +5975,21 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>376</v>
       </c>
@@ -5264,7 +6003,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>490</v>
       </c>
@@ -5278,7 +6017,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>495</v>
       </c>
@@ -5292,7 +6031,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>499</v>
       </c>
@@ -5323,7 +6062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -5333,47 +6072,47 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="59" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>230</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
@@ -5381,17 +6120,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="3" t="s">
         <v>242</v>
       </c>
@@ -5399,15 +6138,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="3" t="s">
         <v>211</v>
       </c>
@@ -5415,7 +6154,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
         <v>213</v>
       </c>
@@ -5423,7 +6162,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>214</v>
       </c>
@@ -5431,7 +6170,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>215</v>
       </c>
@@ -5439,7 +6178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
         <v>221</v>
       </c>
@@ -5447,7 +6186,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
         <v>223</v>
       </c>
@@ -5455,7 +6194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
         <v>225</v>
       </c>
@@ -5463,7 +6202,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>227</v>
       </c>
@@ -5471,7 +6210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
         <v>212</v>
       </c>
@@ -5492,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5502,66 +6241,66 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>230</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="41"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5575,7 +6314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -5583,14 +6322,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5598,31 +6337,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +6372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -5644,7 +6383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -5655,7 +6394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -5666,7 +6405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -5677,7 +6416,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -5688,7 +6427,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>

--- a/Linux_Befehle.xlsx
+++ b/Linux_Befehle.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AD1FA-14CA-4D61-8BA9-55533C6B2613}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux_Befehle" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,8 @@
     <sheet name="Git" sheetId="2" r:id="rId9"/>
     <sheet name="Unix Streams, Pipes, Umleitunge" sheetId="10" r:id="rId10"/>
     <sheet name="Task_Scheduler" sheetId="12" r:id="rId11"/>
+    <sheet name="Prozesse" sheetId="13" r:id="rId12"/>
+    <sheet name="Logging" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Linux_Befehle!$A$1:$E$22</definedName>
@@ -27,17 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="576">
   <si>
     <t>Befehl</t>
   </si>
@@ -2556,11 +2554,6 @@
     <t>ps [option]</t>
   </si>
   <si>
-    <t>-e wählt alle Prozesse aus
-r beschränkt die Auswahl auf laufende Prozesse
--f erzeugt eine detailliertere Ausgabe</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">report a snapshot of the current </t>
     </r>
@@ -2598,13 +2591,57 @@
     </r>
   </si>
   <si>
-    <t>ps -ef</t>
+    <t>Prozesse</t>
+  </si>
+  <si>
+    <t>Jeder Prozesse in Linux hat einen Parent Prozess</t>
+  </si>
+  <si>
+    <t>initd = 0</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>kill [options] signal pid</t>
+  </si>
+  <si>
+    <t>-l list all signals to kill a process
+-s signal
+-p pid</t>
+  </si>
+  <si>
+    <t>-e wählt alle Prozesse aus
+r beschränkt die Auswahl auf laufende Prozesse
+-f erzeugt eine detailliertere Ausgabe
+-j Jobs Format
+-H Show process hierarchy (forest)
+a BSD style
+u Display user-oriented format
+x Lift the BSD-style</t>
+  </si>
+  <si>
+    <t>Show all Processes detailed:
+ps -ef
+Show all Processes detailed in BSD format
+ps aux
+Show all Processes in tree format:
+ps -ejH</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>/VAR/LOG/SYSLOG OR /VAR/LOG/MESSAGES STORES ALL GLOBAL SYSTEM ACTIVITY DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEBIAN-BASED SYSTEMS LIKE UBUNTU STORE THIS IN /VAR/LOG/SYSLOG. REDHAT-BASED SYSTEMS LIKE RHEL OR CENTOS STORE THIS IN /VAR/LOG/MESSAGES.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2820,7 +2857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2930,6 +2967,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2942,21 +2994,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3008,30 +3045,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3050,9 +3087,12 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3087,7 +3127,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="umask permanent setting config file">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3188,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3237,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Image result for git">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.linux-praxis.de/lpic1/images/kanal1.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.linux-praxis.de/lpic1/images/kanal1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3565,24 +3611,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="38" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +3647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -3614,12 +3662,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3636,7 +3684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3653,7 +3701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -3670,7 +3718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3687,7 +3735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>546</v>
       </c>
@@ -3704,7 +3752,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>254</v>
       </c>
@@ -3721,7 +3769,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>247</v>
       </c>
@@ -3738,7 +3786,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>158</v>
       </c>
@@ -3752,7 +3800,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>156</v>
       </c>
@@ -3769,7 +3817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -3786,7 +3834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>201</v>
       </c>
@@ -3803,7 +3851,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +3868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>301</v>
       </c>
@@ -3837,7 +3885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>165</v>
       </c>
@@ -3854,7 +3902,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3871,7 +3919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -3888,7 +3936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>196</v>
       </c>
@@ -3905,7 +3953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -3922,7 +3970,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -3939,7 +3987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>252</v>
       </c>
@@ -3956,7 +4004,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -3973,7 +4021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -3990,7 +4038,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -4007,7 +4055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -4024,7 +4072,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -4041,7 +4089,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
@@ -4056,7 +4104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -4073,7 +4121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -4090,7 +4138,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
@@ -4107,7 +4155,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>191</v>
       </c>
@@ -4124,7 +4172,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>562</v>
       </c>
@@ -4149,16 +4197,16 @@
         <v>563</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>245</v>
       </c>
@@ -4175,7 +4223,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
@@ -4192,7 +4240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>146</v>
       </c>
@@ -4209,12 +4257,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>246</v>
       </c>
@@ -4231,7 +4279,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>253</v>
       </c>
@@ -4248,7 +4296,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>244</v>
       </c>
@@ -4265,7 +4313,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -4282,7 +4330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -4299,7 +4347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -4316,7 +4364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>250</v>
       </c>
@@ -4333,7 +4381,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>257</v>
       </c>
@@ -4350,7 +4398,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -4367,7 +4415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>255</v>
       </c>
@@ -4384,7 +4432,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
@@ -4401,7 +4449,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>206</v>
       </c>
@@ -4418,7 +4466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4432,7 +4480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>115</v>
       </c>
@@ -4446,7 +4494,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>15</v>
       </c>
@@ -4463,7 +4511,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
@@ -4480,7 +4528,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>1</v>
       </c>
@@ -4497,7 +4545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>248</v>
       </c>
@@ -4512,6 +4560,17 @@
       </c>
       <c r="E57" s="3" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -4524,37 +4583,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>512</v>
       </c>
       <c r="B1" s="66"/>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="J1" s="66" t="s">
         <v>541</v>
       </c>
@@ -4563,21 +4622,21 @@
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>513</v>
       </c>
@@ -4593,15 +4652,15 @@
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+    </row>
+    <row r="4" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>505</v>
       </c>
@@ -4611,21 +4670,21 @@
       <c r="D4" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="J4" s="73" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="67" t="s">
         <v>542</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-    </row>
-    <row r="5" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>504</v>
       </c>
@@ -4635,21 +4694,21 @@
       <c r="D5" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="J5" s="49" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="45" t="s">
         <v>543</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>503</v>
       </c>
@@ -4659,29 +4718,29 @@
       <c r="D6" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="73" t="s">
         <v>518</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="73"/>
       <c r="D8" s="72" t="s">
         <v>535</v>
       </c>
@@ -4690,33 +4749,33 @@
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
         <v>519</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="D10" s="49" t="s">
+      <c r="B10" s="45"/>
+      <c r="D10" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="74"/>
       <c r="D11" s="71" t="s">
         <v>537</v>
       </c>
@@ -4725,22 +4784,22 @@
       <c r="G11" s="71"/>
       <c r="H11" s="71"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="D12" s="49" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="D12" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="45"/>
       <c r="D13" s="71" t="s">
         <v>539</v>
       </c>
@@ -4749,20 +4808,20 @@
       <c r="G13" s="71"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="69" t="s">
         <v>522</v>
       </c>
       <c r="B14" s="69"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="67" t="s">
         <v>544</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="69"/>
       <c r="B15" s="69"/>
       <c r="D15" s="71" t="s">
@@ -4773,20 +4832,19 @@
       <c r="G15" s="71"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J1:N2"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E3:H3"/>
@@ -4800,11 +4858,12 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4813,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
@@ -4823,14 +4882,14 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
         <v>551</v>
       </c>
@@ -4846,7 +4905,7 @@
       <c r="I1" s="76"/>
       <c r="J1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -4858,7 +4917,7 @@
       <c r="I2" s="76"/>
       <c r="J2" s="76"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
         <v>552</v>
       </c>
@@ -4884,7 +4943,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="80" t="s">
         <v>553</v>
       </c>
@@ -4901,7 +4960,7 @@
       <c r="J4" s="77"/>
       <c r="K4" s="77"/>
     </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -4914,7 +4973,7 @@
       <c r="J5" s="77"/>
       <c r="K5" s="77"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>554</v>
       </c>
@@ -4956,8 +5015,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF800BA-A890-49FA-A7A5-36B43EBA887C}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62088F2-71C3-4BCA-A4E8-8A083F042BCA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="44.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -4967,19 +5133,19 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" style="29" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>358</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>274</v>
       </c>
@@ -4987,7 +5153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>343</v>
       </c>
@@ -4995,7 +5161,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>344</v>
       </c>
@@ -5003,7 +5169,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>345</v>
       </c>
@@ -5011,7 +5177,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>346</v>
       </c>
@@ -5019,7 +5185,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>347</v>
       </c>
@@ -5027,7 +5193,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>348</v>
       </c>
@@ -5035,7 +5201,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>349</v>
       </c>
@@ -5043,7 +5209,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>350</v>
       </c>
@@ -5051,7 +5217,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>351</v>
       </c>
@@ -5059,7 +5225,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
         <v>352</v>
       </c>
@@ -5067,7 +5233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>353</v>
       </c>
@@ -5075,7 +5241,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>354</v>
       </c>
@@ -5083,7 +5249,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>355</v>
       </c>
@@ -5091,7 +5257,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>356</v>
       </c>
@@ -5099,7 +5265,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>357</v>
       </c>
@@ -5116,7 +5282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5126,19 +5292,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>262</v>
       </c>
@@ -5148,16 +5314,16 @@
       <c r="C1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>265</v>
       </c>
@@ -5167,18 +5333,18 @@
       <c r="C2" s="23">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>266</v>
       </c>
@@ -5188,18 +5354,18 @@
       <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>267</v>
       </c>
@@ -5209,50 +5375,50 @@
       <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="28" t="s">
         <v>280</v>
       </c>
@@ -5270,12 +5436,12 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="27" t="s">
         <v>285</v>
       </c>
@@ -5292,12 +5458,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="27" t="s">
         <v>288</v>
       </c>
@@ -5314,7 +5480,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="D11" s="27" t="s">
         <v>289</v>
       </c>
@@ -5331,7 +5497,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="D12" s="27" t="s">
         <v>290</v>
       </c>
@@ -5350,17 +5516,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="G3:I4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D6:H7"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="G3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5369,25 +5535,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="26" customWidth="1"/>
     <col min="3" max="3" width="22" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
         <v>374</v>
       </c>
@@ -5395,19 +5561,19 @@
       <c r="C1" s="54"/>
       <c r="D1" s="54"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
         <v>375</v>
       </c>
@@ -5415,13 +5581,13 @@
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>376</v>
       </c>
@@ -5435,7 +5601,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>380</v>
       </c>
@@ -5449,7 +5615,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>384</v>
       </c>
@@ -5463,7 +5629,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>388</v>
       </c>
@@ -5477,7 +5643,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>392</v>
       </c>
@@ -5491,7 +5657,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>396</v>
       </c>
@@ -5505,7 +5671,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>399</v>
       </c>
@@ -5519,7 +5685,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="56" t="s">
         <v>402</v>
       </c>
@@ -5527,13 +5693,13 @@
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>376</v>
       </c>
@@ -5547,7 +5713,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>403</v>
       </c>
@@ -5561,7 +5727,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>407</v>
       </c>
@@ -5575,7 +5741,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>411</v>
       </c>
@@ -5589,7 +5755,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>414</v>
       </c>
@@ -5603,7 +5769,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>417</v>
       </c>
@@ -5617,7 +5783,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>421</v>
       </c>
@@ -5631,7 +5797,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="57" t="s">
         <v>425</v>
       </c>
@@ -5639,13 +5805,13 @@
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="57"/>
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
         <v>376</v>
       </c>
@@ -5659,7 +5825,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>426</v>
       </c>
@@ -5673,7 +5839,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>432</v>
       </c>
@@ -5687,7 +5853,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="58" t="s">
         <v>434</v>
       </c>
@@ -5695,13 +5861,13 @@
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="58"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>376</v>
       </c>
@@ -5715,7 +5881,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>436</v>
       </c>
@@ -5729,7 +5895,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>439</v>
       </c>
@@ -5743,7 +5909,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>443</v>
       </c>
@@ -5757,7 +5923,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>448</v>
       </c>
@@ -5771,7 +5937,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>452</v>
       </c>
@@ -5785,7 +5951,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="50" t="s">
         <v>456</v>
       </c>
@@ -5793,13 +5959,13 @@
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="50"/>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>376</v>
       </c>
@@ -5813,7 +5979,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>435</v>
       </c>
@@ -5827,7 +5993,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>460</v>
       </c>
@@ -5838,7 +6004,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>463</v>
       </c>
@@ -5849,7 +6015,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>465</v>
       </c>
@@ -5863,7 +6029,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="51" t="s">
         <v>469</v>
       </c>
@@ -5871,13 +6037,13 @@
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="34" t="s">
         <v>376</v>
       </c>
@@ -5891,7 +6057,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>470</v>
       </c>
@@ -5905,7 +6071,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>472</v>
       </c>
@@ -5919,7 +6085,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>476</v>
       </c>
@@ -5933,7 +6099,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>482</v>
       </c>
@@ -5947,7 +6113,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>484</v>
       </c>
@@ -5961,7 +6127,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>486</v>
       </c>
@@ -5975,7 +6141,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
         <v>493</v>
       </c>
@@ -5983,13 +6149,13 @@
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="53"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>376</v>
       </c>
@@ -6003,7 +6169,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>490</v>
       </c>
@@ -6017,7 +6183,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>495</v>
       </c>
@@ -6031,7 +6197,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>499</v>
       </c>
@@ -6062,7 +6228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6072,17 +6238,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>237</v>
       </c>
@@ -6094,7 +6260,7 @@
       </c>
       <c r="F1" s="63"/>
     </row>
-    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -6102,7 +6268,7 @@
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
     </row>
-    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>230</v>
       </c>
@@ -6120,7 +6286,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>232</v>
       </c>
@@ -6138,7 +6304,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>238</v>
       </c>
@@ -6154,7 +6320,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6" s="3" t="s">
         <v>213</v>
       </c>
@@ -6162,7 +6328,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>214</v>
       </c>
@@ -6170,7 +6336,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
         <v>215</v>
       </c>
@@ -6178,7 +6344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="3" t="s">
         <v>221</v>
       </c>
@@ -6186,7 +6352,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E10" s="3" t="s">
         <v>223</v>
       </c>
@@ -6194,7 +6360,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E11" s="3" t="s">
         <v>225</v>
       </c>
@@ -6202,7 +6368,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E12" s="3" t="s">
         <v>227</v>
       </c>
@@ -6210,7 +6376,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="3" t="s">
         <v>212</v>
       </c>
@@ -6231,7 +6397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -6241,14 +6407,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
         <v>229</v>
       </c>
@@ -6256,19 +6422,19 @@
       <c r="C1" s="64"/>
       <c r="D1" s="64"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="64"/>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>230</v>
       </c>
@@ -6280,27 +6446,27 @@
       </c>
       <c r="D4" s="65"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="49"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="45"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6314,7 +6480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6322,14 +6488,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6337,14 +6503,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -6354,14 +6520,14 @@
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6372,7 +6538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -6383,7 +6549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -6394,7 +6560,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -6405,7 +6571,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -6416,7 +6582,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -6427,7 +6593,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>178</v>
       </c>
